--- a/Income/ENTG_inc.xlsx
+++ b/Income/ENTG_inc.xlsx
@@ -2305,16 +2305,16 @@
         <v>0.4285</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.4293</v>
+        <v>0.4383</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.4253</v>
+        <v>0.4349</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.4264</v>
+        <v>0.4363</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.4372</v>
+        <v>0.4473</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.4431</v>
@@ -3829,16 +3829,16 @@
         <v>0.2867</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.2864</v>
+        <v>0.288</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0.27</v>
+        <v>0.2717</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.2578</v>
+        <v>0.2595</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.239</v>
+        <v>0.2407</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0.2346</v>
